--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -23,7 +23,7 @@
     <t>「Pickles 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2014-12-14 07:15:22</t>
+    <t>Exported: 2015-02-24 00:56:09</t>
   </si>
   <si>
     <t>ページID</t>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
   <si>
     <t>「Pickles 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2015-02-24 00:56:09</t>
+    <t>Exported: 2015-11-09 13:32:45</t>
   </si>
   <si>
     <t>ページID</t>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
   <si>
     <t>id</t>
@@ -205,6 +208,9 @@
   </si>
   <si>
     <t>/sample_pages/page1/4/index.html</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_1</t>
   </si>
   <si>
     <t>サンプルページ2へのエイリアス</t>
@@ -740,7 +746,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -772,7 +778,7 @@
     <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customHeight="1" ht="10">
+    <row r="1" spans="1:21" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,18 +801,19 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,13 +864,16 @@
       <c r="T7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -871,49 +881,52 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>33</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -925,26 +938,27 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -955,7 +969,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
@@ -964,22 +978,23 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -989,7 +1004,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
@@ -1001,14 +1016,15 @@
       <c r="R11" s="9"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1017,7 +1033,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -1029,14 +1045,15 @@
       <c r="R12" s="9"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1045,7 +1062,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
@@ -1057,14 +1074,15 @@
       <c r="R13" s="9"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1073,7 +1091,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1085,14 +1103,15 @@
       <c r="R14" s="9"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1101,7 +1120,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1113,13 +1132,14 @@
       <c r="R15" s="9"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1129,7 +1149,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1141,8 +1161,9 @@
       <c r="R16" s="9"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1153,17 +1174,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1172,20 +1193,21 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1195,7 +1217,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
@@ -1204,20 +1226,21 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1227,7 +1250,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1236,20 +1259,21 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1259,10 +1283,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -1270,20 +1294,23 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1293,7 +1320,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
@@ -1302,19 +1329,20 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1325,7 +1353,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
@@ -1334,22 +1362,23 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1359,7 +1388,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
@@ -1368,20 +1397,21 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1391,7 +1421,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1400,19 +1430,20 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1423,7 +1454,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4">
@@ -1432,22 +1463,23 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S25" s="4">
         <v>1</v>
       </c>
       <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1457,7 +1489,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
@@ -1466,20 +1498,21 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1489,7 +1522,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
@@ -1498,19 +1531,20 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1521,7 +1555,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
@@ -1530,17 +1564,18 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-    </row>
-    <row r="31" spans="1:20" customHeight="1" ht="5">
+      <c r="U28" s="4"/>
+    </row>
+    <row r="31" spans="1:21" customHeight="1" ht="5">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1561,6 +1596,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Pickles 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2015-11-09 13:32:45</t>
+    <t>Exported: 2016-01-02 18:56:11</t>
   </si>
   <si>
     <t>ページID</t>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>/sample_pages/page2/2.html</t>
+  </si>
+  <si>
+    <t>サンプル2-2-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/page2/2_subpages/sub1.html</t>
+  </si>
+  <si>
+    <t>サンプル2-2-2</t>
+  </si>
+  <si>
+    <t>/sample_pages/page2/2_subpages/sub2/sub2.html</t>
   </si>
   <si>
     <t>サンプルページ3</t>
@@ -746,7 +758,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1442,11 +1454,11 @@
     <row r="25" spans="1:21">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="4"/>
@@ -1456,7 +1468,9 @@
       <c r="L25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="N25" s="4">
         <v>1</v>
       </c>
@@ -1468,9 +1482,7 @@
       <c r="R25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="4">
-        <v>1</v>
-      </c>
+      <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
@@ -1478,10 +1490,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="4"/>
@@ -1491,7 +1503,9 @@
       <c r="L26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="N26" s="4">
         <v>1</v>
       </c>
@@ -1510,10 +1524,10 @@
     <row r="27" spans="1:21">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1536,17 +1550,19 @@
       <c r="R27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S27" s="4"/>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1573,30 +1589,96 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="31" spans="1:21" customHeight="1" ht="5">
-      <c r="A31" s="10" t="s">
+    <row r="29" spans="1:21">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="33" spans="1:21" customHeight="1" ht="5">
+      <c r="A33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
-  </si>
-  <si>
-    <t>「Pickles 2」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2016-01-02 18:56:11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
+  </si>
+  <si>
+    <t>「Get start "Pickles 2" !」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2017-07-06 12:53:09</t>
   </si>
   <si>
     <t>ページID</t>
@@ -68,52 +68,61 @@
     <t>カテゴリトップフラグ</t>
   </si>
   <si>
+    <t>ロール</t>
+  </si>
+  <si>
+    <t>コンテンツの処理方法</t>
+  </si>
+  <si>
     <t>削除フラグ</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_h1</t>
+  </si>
+  <si>
+    <t>title_label</t>
+  </si>
+  <si>
+    <t>title_breadcrumb</t>
+  </si>
+  <si>
+    <t>title_full</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>list_flg</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>orderby</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category_top_flg</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>title_h1</t>
-  </si>
-  <si>
-    <t>title_label</t>
-  </si>
-  <si>
-    <t>title_breadcrumb</t>
-  </si>
-  <si>
-    <t>title_full</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>list_flg</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>orderby</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category_top_flg</t>
+    <t>proc_type</t>
   </si>
   <si>
     <t>**delete_flg</t>
@@ -758,7 +767,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -790,7 +799,7 @@
     <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customHeight="1" ht="10">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,18 +823,19 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -879,13 +889,16 @@
       <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -893,52 +906,55 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -950,14 +966,14 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="9"/>
@@ -965,12 +981,13 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -981,7 +998,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
@@ -990,23 +1007,24 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1016,7 +1034,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
@@ -1029,14 +1047,15 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1045,7 +1064,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -1058,14 +1077,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1074,7 +1094,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
@@ -1087,14 +1107,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1103,7 +1124,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1116,14 +1137,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1132,7 +1154,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1145,13 +1167,14 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1161,7 +1184,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1174,8 +1197,9 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1186,17 +1210,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1205,21 +1229,22 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1229,7 +1254,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
@@ -1238,21 +1263,22 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1262,7 +1288,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1271,21 +1297,22 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1295,10 +1322,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -1306,23 +1333,24 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1332,7 +1360,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
@@ -1341,20 +1369,21 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1365,7 +1394,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
@@ -1374,23 +1403,24 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1400,7 +1430,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
@@ -1409,21 +1439,22 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1433,7 +1464,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1442,22 +1473,23 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1466,10 +1498,10 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -1477,22 +1509,23 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1501,10 +1534,10 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -1512,20 +1545,21 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1536,7 +1570,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
@@ -1545,23 +1579,24 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1571,7 +1606,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
@@ -1580,21 +1615,22 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1604,7 +1640,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4">
@@ -1613,20 +1649,21 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1637,7 +1674,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4">
@@ -1646,18 +1683,19 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-    </row>
-    <row r="33" spans="1:21" customHeight="1" ht="5">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="33" spans="1:22" customHeight="1" ht="5">
       <c r="A33" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1679,6 +1717,7 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -23,7 +23,7 @@
     <t>「Get start "Pickles 2" !」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-07-06 12:53:09</t>
+    <t>Exported: 2017-07-12 21:00:07</t>
   </si>
   <si>
     <t>ページID</t>
@@ -137,7 +137,7 @@
     <t>top</t>
   </si>
   <si>
-    <t>サンプルページ1</t>
+    <t>はじめに</t>
   </si>
   <si>
     <t>/sample_pages/</t>
@@ -225,55 +225,55 @@
     <t>サンプルページ2へのエイリアス</t>
   </si>
   <si>
-    <t>alias:/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>サンプルページ2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/</t>
+    <t>alias:/sample_pages/training/</t>
+  </si>
+  <si>
+    <t>練習してみよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/</t>
   </si>
   <si>
     <t>サンプル2-1</t>
   </si>
   <si>
-    <t>/sample_pages/page2/1.htm</t>
+    <t>/sample_pages/training/1.htm</t>
   </si>
   <si>
     <t>サンプル2-2</t>
   </si>
   <si>
-    <t>/sample_pages/page2/2.html</t>
+    <t>/sample_pages/training/2.html</t>
   </si>
   <si>
     <t>サンプル2-2-1</t>
   </si>
   <si>
-    <t>/sample_pages/page2/2_subpages/sub1.html</t>
+    <t>/sample_pages/training/2_subpages/sub1.html</t>
   </si>
   <si>
     <t>サンプル2-2-2</t>
   </si>
   <si>
-    <t>/sample_pages/page2/2_subpages/sub2/sub2.html</t>
-  </si>
-  <si>
-    <t>サンプルページ3</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/</t>
+    <t>/sample_pages/training/2_subpages/sub2/sub2.html</t>
+  </si>
+  <si>
+    <t>色々な機能</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/</t>
   </si>
   <si>
     <t>サンプル3-1</t>
   </si>
   <si>
-    <t>/sample_pages/page3/1.html</t>
+    <t>/sample_pages/samples/1.html</t>
   </si>
   <si>
     <t>サンプル3-2</t>
   </si>
   <si>
-    <t>/sample_pages/page3/2.html</t>
+    <t>/sample_pages/samples/2.html</t>
   </si>
   <si>
     <t>ヘルプ</t>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Get start "Pickles 2" !」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-07-12 21:00:07</t>
+    <t>Exported: 2017-07-12 23:47:57</t>
   </si>
   <si>
     <t>ページID</t>
@@ -149,40 +149,28 @@
     <t>このページはPxFWのサンプルコードとして予め用意されたものです。サンプルが不要であれば、sample_pagesディレクトリとともに削除してください。</t>
   </si>
   <si>
-    <t>FESSスタイルガイド</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/</t>
-  </si>
-  <si>
-    <t>ユニットモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/units/</t>
-  </si>
-  <si>
-    <t>パーツモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/parts/</t>
-  </si>
-  <si>
-    <t>スタティックモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/statics/</t>
-  </si>
-  <si>
-    <t>ボックスモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/boxes/</t>
-  </si>
-  <si>
-    <t>Bootstrapスタイルガイド</t>
-  </si>
-  <si>
-    <t>/sample_pages/bootstrap/</t>
+    <t>練習してみよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/</t>
+  </si>
+  <si>
+    <t>さまざまな機能</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/</t>
+  </si>
+  <si>
+    <t>PHPコード埋め込み</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/php_code.html</t>
+  </si>
+  <si>
+    <t>Markdown記法</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/markdown.html</t>
   </si>
   <si>
     <t>ページタイトル
@@ -195,85 +183,61 @@
     <t>ページタイトル(パンくずのラベル)</t>
   </si>
   <si>
-    <t>/sample_pages/page1/1.html</t>
-  </si>
-  <si>
-    <t>PHPコード埋め込み</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/2.html</t>
-  </si>
-  <si>
-    <t>Markdown記法</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/3.html</t>
-  </si>
-  <si>
-    <t>ダイナミックパス</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/4/{*}</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/4/index.html</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_1</t>
-  </si>
-  <si>
-    <t>サンプルページ2へのエイリアス</t>
-  </si>
-  <si>
-    <t>alias:/sample_pages/training/</t>
-  </si>
-  <si>
-    <t>練習してみよう</t>
-  </si>
-  <si>
-    <t>/sample_pages/training/</t>
-  </si>
-  <si>
-    <t>サンプル2-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/training/1.htm</t>
-  </si>
-  <si>
-    <t>サンプル2-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/training/2.html</t>
-  </si>
-  <si>
-    <t>サンプル2-2-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/training/2_subpages/sub1.html</t>
-  </si>
-  <si>
-    <t>サンプル2-2-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/training/2_subpages/sub2/sub2.html</t>
-  </si>
-  <si>
-    <t>色々な機能</t>
-  </si>
-  <si>
-    <t>/sample_pages/samples/</t>
-  </si>
-  <si>
-    <t>サンプル3-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/samples/1.html</t>
-  </si>
-  <si>
-    <t>サンプル3-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/samples/2.html</t>
+    <t>/sample_pages/samples/page_title.html</t>
+  </si>
+  <si>
+    <t>alias_sample</t>
+  </si>
+  <si>
+    <t>エイリアス機能</t>
+  </si>
+  <si>
+    <t>alias:/sample_pages/samples/alias/</t>
+  </si>
+  <si>
+    <t>エイリアスの実体ページ</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/alias/</t>
+  </si>
+  <si>
+    <t>ダイナミックパス機能</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/dynamic_path/{*}</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/dynamic_path/index.html</t>
+  </si>
+  <si>
+    <t>共有コンテンツ</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/shared_content.html</t>
+  </si>
+  <si>
+    <t>共有コンテンツ-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/shared_content_subpages/sub1.html</t>
+  </si>
+  <si>
+    <t>共有コンテンツ-2</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/shared_content_subpages/sub2/sub2.html</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/ssi.html</t>
+  </si>
+  <si>
+    <t>拡張子 *.htm</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/ext_htm.htm</t>
   </si>
   <si>
     <t>ヘルプ</t>
@@ -767,7 +731,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1022,10 +986,10 @@
     <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1042,9 +1006,15 @@
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="4"/>
+      <c r="Q11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1052,11 +1022,11 @@
     <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
@@ -1072,9 +1042,15 @@
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="4"/>
+      <c r="Q12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1083,10 +1059,10 @@
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
@@ -1102,8 +1078,12 @@
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="Q13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1113,10 +1093,10 @@
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
@@ -1132,8 +1112,12 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="Q14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1143,18 +1127,24 @@
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1162,19 +1152,25 @@
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="Q15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1184,7 +1180,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1192,8 +1188,12 @@
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="Q16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1203,24 +1203,18 @@
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1244,7 +1238,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1254,9 +1248,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
@@ -1278,7 +1274,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1288,7 +1284,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1311,10 +1307,10 @@
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="4"/>
@@ -1322,10 +1318,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -1344,15 +1340,13 @@
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="4"/>
@@ -1362,7 +1356,9 @@
       <c r="L21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="N21" s="4">
         <v>1</v>
       </c>
@@ -1382,10 +1378,10 @@
     <row r="22" spans="1:22">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1408,9 +1404,7 @@
       <c r="R22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -1452,10 +1446,10 @@
     <row r="24" spans="1:22">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1483,241 +1477,31 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
+    <row r="27" spans="1:22" customHeight="1" ht="5">
+      <c r="A27" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S27" s="4">
-        <v>1</v>
-      </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="33" spans="1:22" customHeight="1" ht="5">
-      <c r="A33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Get start "Pickles 2" !」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-07-12 23:47:57</t>
+    <t>Exported: 2017-07-13 02:11:20</t>
   </si>
   <si>
     <t>ページID</t>
@@ -149,10 +149,76 @@
     <t>このページはPxFWのサンプルコードとして予め用意されたものです。サンプルが不要であれば、sample_pagesディレクトリとともに削除してください。</t>
   </si>
   <si>
-    <t>練習してみよう</t>
+    <t>サイトマップを編集してみよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/getstart/try_sitemap.html</t>
+  </si>
+  <si>
+    <t>テーマを編集してみよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/getstart/try_theme.html</t>
+  </si>
+  <si>
+    <t>コンテンツを編集してみよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/getstart/try_contents.html</t>
+  </si>
+  <si>
+    <t>パブリッシュしてみよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/getstart/try_publish.html</t>
+  </si>
+  <si>
+    <t>自分のサイトを編集しよう</t>
+  </si>
+  <si>
+    <t>/sample_pages/getstart/try_your_project.html</t>
+  </si>
+  <si>
+    <t>編集してみょう</t>
   </si>
   <si>
     <t>/sample_pages/training/</t>
+  </si>
+  <si>
+    <t>練習ページ1</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/training_001.html</t>
+  </si>
+  <si>
+    <t>練習ページ2</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/training_002.html</t>
+  </si>
+  <si>
+    <t>練習ページ3</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/training_003.html</t>
+  </si>
+  <si>
+    <t>練習ページ4</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/training_004.html</t>
+  </si>
+  <si>
+    <t>練習ページ5</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/training_005.html</t>
+  </si>
+  <si>
+    <t>練習ページ6</t>
+  </si>
+  <si>
+    <t>/sample_pages/training/training_006.html</t>
   </si>
   <si>
     <t>さまざまな機能</t>
@@ -731,7 +797,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -986,10 +1052,10 @@
     <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1012,9 +1078,7 @@
       <c r="R11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="4">
-        <v>1</v>
-      </c>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1022,10 +1086,10 @@
     <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1048,9 +1112,7 @@
       <c r="R12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1128,23 +1190,17 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1164,14 +1220,12 @@
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1180,7 +1234,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1194,7 +1248,9 @@
       <c r="R16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1203,10 +1259,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="4"/>
@@ -1214,7 +1270,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1238,7 +1294,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1248,11 +1304,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4">
         <v>1</v>
       </c>
@@ -1274,7 +1328,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1284,7 +1338,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1307,10 +1361,10 @@
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="D20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="4"/>
@@ -1318,11 +1372,9 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4">
         <v>1</v>
       </c>
@@ -1343,10 +1395,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="4"/>
@@ -1354,11 +1406,9 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4">
         <v>1</v>
       </c>
@@ -1380,7 +1430,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1390,7 +1440,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
@@ -1412,10 +1462,10 @@
     <row r="23" spans="1:22">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1424,7 +1474,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
@@ -1438,7 +1488,9 @@
       <c r="R23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -1446,10 +1498,10 @@
     <row r="24" spans="1:22">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1458,7 +1510,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1477,31 +1529,419 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="27" spans="1:22" customHeight="1" ht="5">
-      <c r="A27" s="10" t="s">
+    <row r="25" spans="1:22">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="38" spans="1:22" customHeight="1" ht="5">
+      <c r="A38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Get start "Pickles 2" !」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-07-13 02:11:20</t>
+    <t>Exported: 2017-07-13 02:39:41</t>
   </si>
   <si>
     <t>ページID</t>
@@ -143,10 +143,10 @@
     <t>/sample_pages/</t>
   </si>
   <si>
-    <t>sample, サンプル</t>
-  </si>
-  <si>
-    <t>このページはPxFWのサンプルコードとして予め用意されたものです。サンプルが不要であれば、sample_pagesディレクトリとともに削除してください。</t>
+    <t>getstart, sample</t>
+  </si>
+  <si>
+    <t>はじめて Pickles 2 を使う方のための情報をご紹介します。</t>
   </si>
   <si>
     <t>サイトマップを編集してみよう</t>
@@ -155,88 +155,139 @@
     <t>/sample_pages/getstart/try_sitemap.html</t>
   </si>
   <si>
+    <t>サイトマップの編集方法をご紹介します。</t>
+  </si>
+  <si>
     <t>テーマを編集してみよう</t>
   </si>
   <si>
     <t>/sample_pages/getstart/try_theme.html</t>
   </si>
   <si>
+    <t>テーマの編集方法をご紹介します。</t>
+  </si>
+  <si>
     <t>コンテンツを編集してみよう</t>
   </si>
   <si>
     <t>/sample_pages/getstart/try_contents.html</t>
   </si>
   <si>
+    <t>コンテンツの編集方法をご紹介します。</t>
+  </si>
+  <si>
     <t>パブリッシュしてみよう</t>
   </si>
   <si>
     <t>/sample_pages/getstart/try_publish.html</t>
   </si>
   <si>
+    <t>パブリッシュの方法をご紹介します。</t>
+  </si>
+  <si>
     <t>自分のサイトを編集しよう</t>
   </si>
   <si>
     <t>/sample_pages/getstart/try_your_project.html</t>
   </si>
   <si>
+    <t>サンプルコンテンツを削除して、オリジナルのサイトを制作する手順をご紹介します。</t>
+  </si>
+  <si>
     <t>編集してみょう</t>
   </si>
   <si>
     <t>/sample_pages/training/</t>
   </si>
   <si>
+    <t>training, チュートリアル</t>
+  </si>
+  <si>
+    <t>ブランクなページを編集してみてください。</t>
+  </si>
+  <si>
     <t>練習ページ1</t>
   </si>
   <si>
     <t>/sample_pages/training/training_001.html</t>
   </si>
   <si>
+    <t>ブランクページ 1。</t>
+  </si>
+  <si>
     <t>練習ページ2</t>
   </si>
   <si>
     <t>/sample_pages/training/training_002.html</t>
   </si>
   <si>
+    <t>ブランクページ 2。</t>
+  </si>
+  <si>
     <t>練習ページ3</t>
   </si>
   <si>
     <t>/sample_pages/training/training_003.html</t>
   </si>
   <si>
+    <t>ブランクページ 3。</t>
+  </si>
+  <si>
     <t>練習ページ4</t>
   </si>
   <si>
     <t>/sample_pages/training/training_004.html</t>
   </si>
   <si>
+    <t>ブランクページ 4。</t>
+  </si>
+  <si>
     <t>練習ページ5</t>
   </si>
   <si>
     <t>/sample_pages/training/training_005.html</t>
   </si>
   <si>
+    <t>ブランクページ 5。</t>
+  </si>
+  <si>
     <t>練習ページ6</t>
   </si>
   <si>
     <t>/sample_pages/training/training_006.html</t>
   </si>
   <si>
+    <t>ブランクページ 6。</t>
+  </si>
+  <si>
     <t>さまざまな機能</t>
   </si>
   <si>
     <t>/sample_pages/samples/</t>
   </si>
   <si>
+    <t>実装サンプル, 機能紹介</t>
+  </si>
+  <si>
+    <t>Pickles 2 のさまざまな機能をご紹介します。</t>
+  </si>
+  <si>
     <t>PHPコード埋め込み</t>
   </si>
   <si>
     <t>/sample_pages/samples/php_code.html</t>
   </si>
   <si>
+    <t>PHPコードでHTMLを生成するサンプルです。</t>
+  </si>
+  <si>
     <t>Markdown記法</t>
   </si>
   <si>
     <t>/sample_pages/samples/markdown.html</t>
+  </si>
+  <si>
+    <t>Markdown言語でコンテンツを編集するサンプルです。</t>
   </si>
   <si>
     <t>ページタイトル
@@ -252,6 +303,9 @@
     <t>/sample_pages/samples/page_title.html</t>
   </si>
   <si>
+    <t>ページのタイトルを自在にコントロールするサンプルです。</t>
+  </si>
+  <si>
     <t>alias_sample</t>
   </si>
   <si>
@@ -261,12 +315,18 @@
     <t>alias:/sample_pages/samples/alias/</t>
   </si>
   <si>
+    <t>エイリアス機能のサンプルです。</t>
+  </si>
+  <si>
     <t>エイリアスの実体ページ</t>
   </si>
   <si>
     <t>/sample_pages/samples/alias/</t>
   </si>
   <si>
+    <t>エイリアス機能の転送先ページです。</t>
+  </si>
+  <si>
     <t>ダイナミックパス機能</t>
   </si>
   <si>
@@ -276,40 +336,64 @@
     <t>/sample_pages/samples/dynamic_path/index.html</t>
   </si>
   <si>
+    <t>ダイナミックパス機能をご紹介します。</t>
+  </si>
+  <si>
     <t>共有コンテンツ</t>
   </si>
   <si>
     <t>/sample_pages/samples/shared_content.html</t>
   </si>
   <si>
+    <t>共通のコンテンツを表示するサンプルの扉ページです。</t>
+  </si>
+  <si>
     <t>共有コンテンツ-1</t>
   </si>
   <si>
     <t>/sample_pages/samples/shared_content_subpages/sub1.html</t>
   </si>
   <si>
+    <t>共通のコンテンツを表示するサンプルです。その1</t>
+  </si>
+  <si>
     <t>共有コンテンツ-2</t>
   </si>
   <si>
     <t>/sample_pages/samples/shared_content_subpages/sub2/sub2.html</t>
   </si>
   <si>
+    <t>共通のコンテンツを表示するサンプルです。その2</t>
+  </si>
+  <si>
     <t>SSI</t>
   </si>
   <si>
     <t>/sample_pages/samples/ssi.html</t>
   </si>
   <si>
+    <t>インクルード機能のサンプルです。</t>
+  </si>
+  <si>
     <t>拡張子 *.htm</t>
   </si>
   <si>
     <t>/sample_pages/samples/ext_htm.htm</t>
   </si>
   <si>
+    <t>htm拡張子のページを描画するサンプルです。</t>
+  </si>
+  <si>
     <t>ヘルプ</t>
   </si>
   <si>
     <t>/sample_pages/help/</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ヘルプページです。</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -1076,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1088,7 +1172,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1098,7 +1182,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -1110,7 +1194,7 @@
         <v>42</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1122,7 +1206,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1132,7 +1216,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
@@ -1144,7 +1228,7 @@
         <v>42</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1156,7 +1240,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1166,7 +1250,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1178,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1190,7 +1274,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1200,7 +1284,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1212,7 +1296,7 @@
         <v>42</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -1223,7 +1307,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1234,7 +1318,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1243,10 +1327,10 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="S16" s="4">
         <v>1</v>
@@ -1260,7 +1344,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1270,7 +1354,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1279,10 +1363,10 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -1294,7 +1378,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1304,7 +1388,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
@@ -1313,10 +1397,10 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -1328,7 +1412,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1338,7 +1422,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1347,10 +1431,10 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -1362,7 +1446,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1372,7 +1456,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4">
@@ -1381,10 +1465,10 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -1396,7 +1480,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1406,7 +1490,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
@@ -1415,10 +1499,10 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -1430,7 +1514,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1440,7 +1524,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
@@ -1449,10 +1533,10 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -1463,7 +1547,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1474,7 +1558,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
@@ -1483,10 +1567,10 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="S23" s="4">
         <v>1</v>
@@ -1500,7 +1584,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1510,7 +1594,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1519,10 +1603,10 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -1534,7 +1618,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1544,7 +1628,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4">
@@ -1553,10 +1637,10 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -1574,17 +1658,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
@@ -1593,10 +1677,10 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -1605,12 +1689,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1620,7 +1704,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
@@ -1629,10 +1713,10 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -1645,7 +1729,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1654,7 +1738,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
@@ -1663,10 +1747,10 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -1678,7 +1762,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1688,10 +1772,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N29" s="4">
         <v>1</v>
@@ -1699,10 +1783,10 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -1714,7 +1798,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1724,7 +1808,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4">
@@ -1733,10 +1817,10 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -1749,7 +1833,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1758,10 +1842,10 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
@@ -1769,10 +1853,10 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -1785,7 +1869,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1794,10 +1878,10 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
@@ -1805,10 +1889,10 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -1820,7 +1904,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -1830,7 +1914,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4">
@@ -1839,10 +1923,10 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -1854,7 +1938,7 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1864,7 +1948,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4">
@@ -1873,10 +1957,10 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="9" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -1887,7 +1971,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1898,7 +1982,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4">
@@ -1907,10 +1991,10 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="9" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -1919,7 +2003,7 @@
     </row>
     <row r="38" spans="1:22" customHeight="1" ht="5">
       <c r="A38" s="10" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>

--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
   <si>
     <t>「Get start "Pickles 2" !」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-07-13 02:39:41</t>
+    <t>Exported: 2017-12-16 17:21:55</t>
   </si>
   <si>
     <t>ページID</t>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>インクルード機能のサンプルです。</t>
+  </si>
+  <si>
+    <t>Popup Page</t>
+  </si>
+  <si>
+    <t>/sample_pages/samples/popup.html</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>ポップアップページのサンプルです。</t>
   </si>
   <si>
     <t>拡張子 *.htm</t>
@@ -881,7 +893,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1954,13 +1966,15 @@
       <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -1970,10 +1984,10 @@
     <row r="35" spans="1:22">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1982,7 +1996,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4">
@@ -1991,7 +2005,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="9" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>125</v>
@@ -2001,31 +2015,65 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
     </row>
-    <row r="38" spans="1:22" customHeight="1" ht="5">
-      <c r="A38" s="10" t="s">
+    <row r="36" spans="1:22">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="39" spans="1:22" customHeight="1" ht="5">
+      <c r="A39" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
